--- a/data/scheduling_DNN/predict/0.1/result4.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result4.xlsx
@@ -570,10 +570,10 @@
         <v>0.9620230197906494</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.8977620005607605</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02253183349967003</v>
+        <v>0.004129478707909584</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8921239376068115</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.9416313767433167</v>
       </c>
       <c r="W3" t="n">
-        <v>0.188884437084198</v>
+        <v>0.002450986532494426</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.873668909072876</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.4774983525276184</v>
       </c>
       <c r="W4" t="n">
-        <v>0.06042151525616646</v>
+        <v>0.1569511145353317</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8910341262817383</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.4959641098976135</v>
       </c>
       <c r="W5" t="n">
-        <v>0.06132221221923828</v>
+        <v>0.1560803204774857</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.883497953414917</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.5660963654518127</v>
       </c>
       <c r="W6" t="n">
-        <v>0.05653058737516403</v>
+        <v>0.1007437705993652</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8729598522186279</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.5487551093101501</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1487235426902771</v>
+        <v>0.1051087155938148</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8907849788665771</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.5036832690238953</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2068095952272415</v>
+        <v>0.1498477309942245</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8691999912261963</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.8715924024581909</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1693653017282486</v>
+        <v>5.723631602450041e-06</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8802900314331055</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.4689686894416809</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1075373664498329</v>
+        <v>0.1691852509975433</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8647279739379883</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.4857606291770935</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1300094425678253</v>
+        <v>0.1436162441968918</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9151389598846436</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.5147709250450134</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2295507341623306</v>
+        <v>0.1602945625782013</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8867030143737793</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.5680298209190369</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0689392015337944</v>
+        <v>0.1015526056289673</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8881669044494629</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.8926849961280823</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1384555697441101</v>
+        <v>2.041315201495308e-05</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9493319988250732</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.9152107834815979</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2441527843475342</v>
+        <v>0.001164257293567061</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.9293711185455322</v>
       </c>
       <c r="V16" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.5400165319442749</v>
       </c>
       <c r="W16" t="n">
-        <v>0.03907983005046844</v>
+        <v>0.1515969932079315</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8806600570678711</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.5265575051307678</v>
       </c>
       <c r="W17" t="n">
-        <v>0.06541535258293152</v>
+        <v>0.1253886222839355</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8761510848999023</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.5021259188652039</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1785674691200256</v>
+        <v>0.1398948282003403</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8594691753387451</v>
       </c>
       <c r="V19" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.4959498047828674</v>
       </c>
       <c r="W19" t="n">
-        <v>0.01260741706937551</v>
+        <v>0.1321463286876678</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9256541728973389</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.9628419876098633</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2033689022064209</v>
+        <v>0.001382933580316603</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8782110214233398</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.4692818522453308</v>
       </c>
       <c r="W21" t="n">
-        <v>0.105396956205368</v>
+        <v>0.1672230660915375</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5212700366973877</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.548707902431488</v>
       </c>
       <c r="W22" t="n">
-        <v>0.006278504617512226</v>
+        <v>0.0007528364658355713</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5299160480499268</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.5106853246688843</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0005282710189931095</v>
+        <v>0.0003698207146953791</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5251100063323975</v>
       </c>
       <c r="V24" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.9848926663398743</v>
       </c>
       <c r="W24" t="n">
-        <v>0.08484850078821182</v>
+        <v>0.2114000916481018</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.7349710464477539</v>
       </c>
       <c r="V25" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.8824219703674316</v>
       </c>
       <c r="W25" t="n">
-        <v>0.007023891434073448</v>
+        <v>0.02174177579581738</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5272889137268066</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.9733505845069885</v>
       </c>
       <c r="W26" t="n">
-        <v>0.005106566939502954</v>
+        <v>0.1989710181951523</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5205950736999512</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.4686495661735535</v>
       </c>
       <c r="W27" t="n">
-        <v>0.00715215876698494</v>
+        <v>0.00269833579659462</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5179450511932373</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.9075138568878174</v>
       </c>
       <c r="W28" t="n">
-        <v>0.001072852057404816</v>
+        <v>0.1517638564109802</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5471930503845215</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.4822317957878113</v>
       </c>
       <c r="W29" t="n">
-        <v>0.004949750378727913</v>
+        <v>0.004219964612275362</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5968430042266846</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.4947564005851746</v>
       </c>
       <c r="W30" t="n">
-        <v>0.02010162360966206</v>
+        <v>0.01042167469859123</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5157961845397949</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.4676142930984497</v>
       </c>
       <c r="W31" t="n">
-        <v>0.00172847684007138</v>
+        <v>0.002321494743227959</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5430161952972412</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.5396996736526489</v>
       </c>
       <c r="W32" t="n">
-        <v>0.001176667865365744</v>
+        <v>1.099931614589877e-05</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5233700275421143</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.4951956272125244</v>
       </c>
       <c r="W33" t="n">
-        <v>0.006585370283573866</v>
+        <v>0.0007937968475744128</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5274989604949951</v>
       </c>
       <c r="V34" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.9354310035705566</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02209820225834846</v>
+        <v>0.1664085537195206</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5812101364135742</v>
       </c>
       <c r="V35" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.5016022920608521</v>
       </c>
       <c r="W35" t="n">
-        <v>0.03652394935488701</v>
+        <v>0.006337408907711506</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5146191120147705</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.4691650867462158</v>
       </c>
       <c r="W36" t="n">
-        <v>0.00136114691849798</v>
+        <v>0.002066068351268768</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5166120529174805</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.5026599764823914</v>
       </c>
       <c r="W37" t="n">
-        <v>0.003488288726657629</v>
+        <v>0.0001946604315889999</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5149469375610352</v>
       </c>
       <c r="V38" t="n">
-        <v>0.435836523771286</v>
+        <v>0.4686699509620667</v>
       </c>
       <c r="W38" t="n">
-        <v>0.006258457433432341</v>
+        <v>0.00214155949652195</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.513206958770752</v>
       </c>
       <c r="V39" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.4820665121078491</v>
       </c>
       <c r="W39" t="n">
-        <v>0.04865184798836708</v>
+        <v>0.0009697274072095752</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5150690078735352</v>
       </c>
       <c r="V40" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.5405648946762085</v>
       </c>
       <c r="W40" t="n">
-        <v>0.01122300233691931</v>
+        <v>0.0006500402232632041</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5304489135742188</v>
       </c>
       <c r="V41" t="n">
-        <v>0.436027318239212</v>
+        <v>0.4853800535202026</v>
       </c>
       <c r="W41" t="n">
-        <v>0.008915437385439873</v>
+        <v>0.002031202195212245</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3964581489562988</v>
       </c>
       <c r="V42" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.5633000731468201</v>
       </c>
       <c r="W42" t="n">
-        <v>0.02422681637108326</v>
+        <v>0.02783622778952122</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4007949829101562</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.882977306842804</v>
       </c>
       <c r="W43" t="n">
-        <v>0.06149815768003464</v>
+        <v>0.2324997931718826</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3881270885467529</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.4836627840995789</v>
       </c>
       <c r="W44" t="n">
-        <v>0.00767746614292264</v>
+        <v>0.009127069264650345</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3887898921966553</v>
       </c>
       <c r="V45" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.4767330884933472</v>
       </c>
       <c r="W45" t="n">
-        <v>0.05329440906643867</v>
+        <v>0.007734005805104971</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3878741264343262</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.4692760705947876</v>
       </c>
       <c r="W46" t="n">
-        <v>0.002352001611143351</v>
+        <v>0.006626276299357414</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4088680744171143</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.48348468542099</v>
       </c>
       <c r="W47" t="n">
-        <v>0.008627913892269135</v>
+        <v>0.005567638669162989</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4046680927276611</v>
       </c>
       <c r="V48" t="n">
-        <v>0.618610143661499</v>
+        <v>0.5063241720199585</v>
       </c>
       <c r="W48" t="n">
-        <v>0.04577120020985603</v>
+        <v>0.01033395808190107</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.387808084487915</v>
       </c>
       <c r="V49" t="n">
-        <v>0.474732518196106</v>
+        <v>0.493033230304718</v>
       </c>
       <c r="W49" t="n">
-        <v>0.007555857300758362</v>
+        <v>0.01107233110815287</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3892550468444824</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.4979185461997986</v>
       </c>
       <c r="W50" t="n">
-        <v>0.004711088724434376</v>
+        <v>0.011807756498456</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3886580467224121</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.8849546313285828</v>
       </c>
       <c r="W51" t="n">
-        <v>0.002242334885522723</v>
+        <v>0.246310293674469</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4054319858551025</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.4884165525436401</v>
       </c>
       <c r="W52" t="n">
-        <v>0.02934358641505241</v>
+        <v>0.006886438466608524</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3891010284423828</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.4859001636505127</v>
       </c>
       <c r="W53" t="n">
-        <v>0.05512475967407227</v>
+        <v>0.009370072744786739</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3884351253509521</v>
       </c>
       <c r="V54" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.8805328607559204</v>
       </c>
       <c r="W54" t="n">
-        <v>4.256019747117534e-05</v>
+        <v>0.2421601861715317</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.39394211769104</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.9768106341362</v>
       </c>
       <c r="W55" t="n">
-        <v>0.01032260712236166</v>
+        <v>0.3397357165813446</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3884658813476562</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.5038434267044067</v>
       </c>
       <c r="W56" t="n">
-        <v>0.002262093126773834</v>
+        <v>0.01331197842955589</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3881950378417969</v>
       </c>
       <c r="V57" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.5414356589317322</v>
       </c>
       <c r="W57" t="n">
-        <v>0.05223960429430008</v>
+        <v>0.02348268777132034</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3889200687408447</v>
       </c>
       <c r="V58" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.9330325126647949</v>
       </c>
       <c r="W58" t="n">
-        <v>0.0649162158370018</v>
+        <v>0.2960583567619324</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.4091980457305908</v>
       </c>
       <c r="V59" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.9220084547996521</v>
       </c>
       <c r="W59" t="n">
-        <v>0.0631897896528244</v>
+        <v>0.2629745304584503</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3935058116912842</v>
       </c>
       <c r="V60" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.4954838752746582</v>
       </c>
       <c r="W60" t="n">
-        <v>0.08503305912017822</v>
+        <v>0.01039952505379915</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3869531154632568</v>
       </c>
       <c r="V61" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.8733981847763062</v>
       </c>
       <c r="W61" t="n">
-        <v>0.056928601115942</v>
+        <v>0.2366288006305695</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9031689167022705</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.5402675271034241</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1225011870265007</v>
+        <v>0.131697416305542</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.867124080657959</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.8853462338447571</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1022154837846756</v>
+        <v>0.0003320468531455845</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.871312141418457</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.468638002872467</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1711274385452271</v>
+        <v>0.1621464639902115</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8711349964141846</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.9247177243232727</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1565040498971939</v>
+        <v>0.002871108707040548</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8629679679870605</v>
       </c>
       <c r="V66" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.4766928553581238</v>
       </c>
       <c r="W66" t="n">
-        <v>0.04084350913763046</v>
+        <v>0.1492084562778473</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8693859577178955</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.8828828930854797</v>
       </c>
       <c r="W67" t="n">
-        <v>0.09038454294204712</v>
+        <v>0.0001821672631194815</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8999099731445312</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.8920488953590393</v>
       </c>
       <c r="W68" t="n">
-        <v>0.07767800241708755</v>
+        <v>6.179654155857861e-05</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8704478740692139</v>
       </c>
       <c r="V69" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.4760758876800537</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1650650501251221</v>
+        <v>0.155529260635376</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.864084005355835</v>
       </c>
       <c r="V70" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.5156915783882141</v>
       </c>
       <c r="W70" t="n">
-        <v>0.04286099970340729</v>
+        <v>0.1213772818446159</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.9124557971954346</v>
       </c>
       <c r="V71" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.4929636120796204</v>
       </c>
       <c r="W71" t="n">
-        <v>0.04990984871983528</v>
+        <v>0.1759736984968185</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8753039836883545</v>
       </c>
       <c r="V72" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.4696608781814575</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1047020256519318</v>
+        <v>0.164546325802803</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8708779811859131</v>
       </c>
       <c r="V73" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.5157047510147095</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1006992384791374</v>
+        <v>0.1261480301618576</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8659369945526123</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.5404099225997925</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1659561693668365</v>
+        <v>0.1059678718447685</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.929757833480835</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.5668907165527344</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1810259371995926</v>
+        <v>0.1316725462675095</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8674721717834473</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.4953268766403198</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1864412277936935</v>
+        <v>0.1384921222925186</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8770549297332764</v>
       </c>
       <c r="V77" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.9780148267745972</v>
       </c>
       <c r="W77" t="n">
-        <v>0.05019233375787735</v>
+        <v>0.01019290089607239</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8632938861846924</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.5397279262542725</v>
       </c>
       <c r="W78" t="n">
-        <v>0.03186763077974319</v>
+        <v>0.1046949326992035</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9274520874023438</v>
       </c>
       <c r="V79" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.5271434187889099</v>
       </c>
       <c r="W79" t="n">
-        <v>0.0805111825466156</v>
+        <v>0.1602470278739929</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8729979991912842</v>
       </c>
       <c r="V80" t="n">
-        <v>0.56879723072052</v>
+        <v>0.4871006608009338</v>
       </c>
       <c r="W80" t="n">
-        <v>0.09253811091184616</v>
+        <v>0.1489167511463165</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.85984206199646</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.4803910255432129</v>
       </c>
       <c r="W81" t="n">
-        <v>0.03092709183692932</v>
+        <v>0.1439830958843231</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5471329689025879</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.50455242395401</v>
       </c>
       <c r="W82" t="n">
-        <v>0.006829185876995325</v>
+        <v>0.001813102862797678</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5504119396209717</v>
       </c>
       <c r="V83" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.8651280403137207</v>
       </c>
       <c r="W83" t="n">
-        <v>0.02897588908672333</v>
+        <v>0.09904622286558151</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5220460891723633</v>
       </c>
       <c r="V84" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.8927264809608459</v>
       </c>
       <c r="W84" t="n">
-        <v>0.0007795934216119349</v>
+        <v>0.1374039500951767</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5191888809204102</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.5403823256492615</v>
       </c>
       <c r="W85" t="n">
-        <v>0.002188997576013207</v>
+        <v>0.0004491620929911733</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.516855001449585</v>
       </c>
       <c r="V86" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.5659540891647339</v>
       </c>
       <c r="W86" t="n">
-        <v>0.08709447830915451</v>
+        <v>0.002410720335319638</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5128409862518311</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.8835365772247314</v>
       </c>
       <c r="W87" t="n">
-        <v>0.0001318445429205894</v>
+        <v>0.1374152153730392</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5156819820404053</v>
       </c>
       <c r="V88" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.4698008298873901</v>
       </c>
       <c r="W88" t="n">
-        <v>0.006409551948308945</v>
+        <v>0.002105080056935549</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5748410224914551</v>
       </c>
       <c r="V89" t="n">
-        <v>0.569115161895752</v>
+        <v>0.5672377943992615</v>
       </c>
       <c r="W89" t="n">
-        <v>3.278547956142575e-05</v>
+        <v>5.780907667940482e-05</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5271370410919189</v>
       </c>
       <c r="V90" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.4963814616203308</v>
       </c>
       <c r="W90" t="n">
-        <v>0.01727025024592876</v>
+        <v>0.000945905689150095</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5203711986541748</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.5347430109977722</v>
       </c>
       <c r="W91" t="n">
-        <v>0.01020527724176645</v>
+        <v>0.0002065489970846102</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5190219879150391</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.4837169647216797</v>
       </c>
       <c r="W92" t="n">
-        <v>0.003761159488931298</v>
+        <v>0.001246444648131728</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5214078426361084</v>
       </c>
       <c r="V93" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.4958463311195374</v>
       </c>
       <c r="W93" t="n">
-        <v>0.002961016725748777</v>
+        <v>0.0006533908890560269</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5681281089782715</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.882840096950531</v>
       </c>
       <c r="W94" t="n">
-        <v>0.004167277365922928</v>
+        <v>0.09904363751411438</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5172469615936279</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.9230638146400452</v>
       </c>
       <c r="W95" t="n">
-        <v>0.003454445395618677</v>
+        <v>0.1646873205900192</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5179810523986816</v>
       </c>
       <c r="V96" t="n">
-        <v>0.475897878408432</v>
+        <v>0.5346099734306335</v>
       </c>
       <c r="W96" t="n">
-        <v>0.001770993578247726</v>
+        <v>0.0002765210228972137</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5168149471282959</v>
       </c>
       <c r="V97" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.4836915731430054</v>
       </c>
       <c r="W97" t="n">
-        <v>0.0115186208859086</v>
+        <v>0.001097157946787775</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5179400444030762</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.5673577189445496</v>
       </c>
       <c r="W98" t="n">
-        <v>0.001005820813588798</v>
+        <v>0.002442106604576111</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5192270278930664</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.4682784676551819</v>
       </c>
       <c r="W99" t="n">
-        <v>0.002445707330480218</v>
+        <v>0.002595755737274885</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5208740234375</v>
       </c>
       <c r="V100" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.9061397910118103</v>
       </c>
       <c r="W100" t="n">
-        <v>0.08738777786493301</v>
+        <v>0.1484297066926956</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5196549892425537</v>
       </c>
       <c r="V101" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.5691667199134827</v>
       </c>
       <c r="W101" t="n">
-        <v>0.01928838714957237</v>
+        <v>0.002451411448419094</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4046330451965332</v>
       </c>
       <c r="V102" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.9762494564056396</v>
       </c>
       <c r="W102" t="n">
-        <v>0.1074900701642036</v>
+        <v>0.326745331287384</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4121971130371094</v>
       </c>
       <c r="V103" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.8723934292793274</v>
       </c>
       <c r="W103" t="n">
-        <v>0.002115339739248157</v>
+        <v>0.2117806524038315</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.415647029876709</v>
       </c>
       <c r="V104" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.4686533212661743</v>
       </c>
       <c r="W104" t="n">
-        <v>0.03432009741663933</v>
+        <v>0.002809667028486729</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4030430316925049</v>
       </c>
       <c r="V105" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.5673133134841919</v>
       </c>
       <c r="W105" t="n">
-        <v>0.05041258782148361</v>
+        <v>0.02698472514748573</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3884580135345459</v>
       </c>
       <c r="V106" t="n">
-        <v>0.473088413476944</v>
+        <v>0.5018389225006104</v>
       </c>
       <c r="W106" t="n">
-        <v>0.007162304595112801</v>
+        <v>0.0128552308306098</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.387423038482666</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.480082094669342</v>
       </c>
       <c r="W107" t="n">
-        <v>0.02751677483320236</v>
+        <v>0.008585700765252113</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3886420726776123</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.5484903454780579</v>
       </c>
       <c r="W108" t="n">
-        <v>0.002255291678011417</v>
+        <v>0.02555146999657154</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3896229267120361</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.8795430064201355</v>
       </c>
       <c r="W109" t="n">
-        <v>0.004667183384299278</v>
+        <v>0.2400216907262802</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3921909332275391</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.4661268591880798</v>
       </c>
       <c r="W110" t="n">
-        <v>0.004366346169263124</v>
+        <v>0.005466521251946688</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3924579620361328</v>
       </c>
       <c r="V111" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.8814765810966492</v>
       </c>
       <c r="W111" t="n">
-        <v>0.1794571280479431</v>
+        <v>0.2391392141580582</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.3983521461486816</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.5624992847442627</v>
       </c>
       <c r="W112" t="n">
-        <v>0.01122881285846233</v>
+        <v>0.02694428339600563</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3916831016540527</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.9600436687469482</v>
       </c>
       <c r="W113" t="n">
-        <v>0.006603380665183067</v>
+        <v>0.3230337202548981</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3909280300140381</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.5407577157020569</v>
       </c>
       <c r="W114" t="n">
-        <v>0.002033628523349762</v>
+        <v>0.02244893461465836</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.39227294921875</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.9571900963783264</v>
       </c>
       <c r="W115" t="n">
-        <v>0.005436028353869915</v>
+        <v>0.3191313743591309</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3921370506286621</v>
       </c>
       <c r="V116" t="n">
-        <v>0.504918098449707</v>
+        <v>0.5086097121238708</v>
       </c>
       <c r="W116" t="n">
-        <v>0.01271956507116556</v>
+        <v>0.01356588117778301</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3936600685119629</v>
       </c>
       <c r="V117" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.5093022584915161</v>
       </c>
       <c r="W117" t="n">
-        <v>0.0002046729787252843</v>
+        <v>0.0133731160312891</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4128909111022949</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.9242527484893799</v>
       </c>
       <c r="W118" t="n">
-        <v>0.02209074236452579</v>
+        <v>0.2614909410476685</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3946609497070312</v>
       </c>
       <c r="V119" t="n">
-        <v>0.436014860868454</v>
+        <v>0.8805016875267029</v>
       </c>
       <c r="W119" t="n">
-        <v>0.001710145967081189</v>
+        <v>0.2360412180423737</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.401543140411377</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.4691888689994812</v>
       </c>
       <c r="W120" t="n">
-        <v>0.02941673621535301</v>
+        <v>0.004575944505631924</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3936769962310791</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.4843463897705078</v>
       </c>
       <c r="W121" t="n">
-        <v>0.02527847327291965</v>
+        <v>0.008220938965678215</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8793509006500244</v>
       </c>
       <c r="V122" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.4857718944549561</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1967806220054626</v>
+        <v>0.1549044400453568</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9259688854217529</v>
       </c>
       <c r="V123" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.472773551940918</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1619408428668976</v>
+        <v>0.2053860127925873</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8711721897125244</v>
       </c>
       <c r="V124" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.4950162768363953</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1743726134300232</v>
+        <v>0.1414932757616043</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8734490871429443</v>
       </c>
       <c r="V125" t="n">
-        <v>0.630542516708374</v>
+        <v>0.8837407827377319</v>
       </c>
       <c r="W125" t="n">
-        <v>0.05900360271334648</v>
+        <v>0.0001059189962688833</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8904759883880615</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.4796779155731201</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2069072127342224</v>
+        <v>0.168755054473877</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.9335901737213135</v>
       </c>
       <c r="V127" t="n">
-        <v>0.551414966583252</v>
+        <v>0.4848833680152893</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1460578888654709</v>
+        <v>0.2013377994298935</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8639388084411621</v>
       </c>
       <c r="V128" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.4987635016441345</v>
       </c>
       <c r="W128" t="n">
-        <v>0.002251542638987303</v>
+        <v>0.1333530098199844</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8650038242340088</v>
       </c>
       <c r="V129" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.5347757935523987</v>
       </c>
       <c r="W129" t="n">
-        <v>0.04194294661283493</v>
+        <v>0.1090505495667458</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8652679920196533</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.4687268733978271</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1662262678146362</v>
+        <v>0.157244861125946</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.9202108383178711</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.5679699182510376</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1351301223039627</v>
+        <v>0.1240736693143845</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8740789890289307</v>
       </c>
       <c r="V132" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.8825814127922058</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1918920129537582</v>
+        <v>7.229120819829404e-05</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8861930370330811</v>
       </c>
       <c r="V133" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.4949766397476196</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1725567579269409</v>
+        <v>0.1530502736568451</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8621330261230469</v>
       </c>
       <c r="V134" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.4946282505989075</v>
       </c>
       <c r="W134" t="n">
-        <v>0.233539342880249</v>
+        <v>0.1350597590208054</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8796448707580566</v>
       </c>
       <c r="V135" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.4987582564353943</v>
       </c>
       <c r="W135" t="n">
-        <v>0.0644824281334877</v>
+        <v>0.1450746059417725</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8672890663146973</v>
       </c>
       <c r="V136" t="n">
-        <v>0.551807165145874</v>
+        <v>0.933135449886322</v>
       </c>
       <c r="W136" t="n">
-        <v>0.09952882677316666</v>
+        <v>0.004335746169090271</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8677690029144287</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.4862118363380432</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1343779265880585</v>
+        <v>0.1455858647823334</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8679239749908447</v>
       </c>
       <c r="V138" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.4988070726394653</v>
       </c>
       <c r="W138" t="n">
-        <v>0.2394944429397583</v>
+        <v>0.1362472921609879</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8858239650726318</v>
       </c>
       <c r="V139" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.4687451720237732</v>
       </c>
       <c r="W139" t="n">
-        <v>0.1457742899656296</v>
+        <v>0.1739547252655029</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8673989772796631</v>
       </c>
       <c r="V140" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.5389671921730042</v>
       </c>
       <c r="W140" t="n">
-        <v>0.001955922460183501</v>
+        <v>0.1078674346208572</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8746049404144287</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.9785362482070923</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1584555953741074</v>
+        <v>0.01080171670764685</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5367920398712158</v>
       </c>
       <c r="V142" t="n">
-        <v>0.551541268825531</v>
+        <v>0.5708703994750977</v>
       </c>
       <c r="W142" t="n">
-        <v>0.0002175397530663759</v>
+        <v>0.001161334570497274</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5399448871612549</v>
       </c>
       <c r="V143" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.4686046242713928</v>
       </c>
       <c r="W143" t="n">
-        <v>0.00549327302724123</v>
+        <v>0.005089432932436466</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5228891372680664</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.4867119789123535</v>
       </c>
       <c r="W144" t="n">
-        <v>0.002339968690648675</v>
+        <v>0.001308786799199879</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5181410312652588</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.4689450860023499</v>
       </c>
       <c r="W145" t="n">
-        <v>0.002702672267332673</v>
+        <v>0.002420241013169289</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5236160755157471</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.9205926060676575</v>
       </c>
       <c r="W146" t="n">
-        <v>0.002797532128170133</v>
+        <v>0.1575903594493866</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5291709899902344</v>
       </c>
       <c r="V147" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.4837881326675415</v>
       </c>
       <c r="W147" t="n">
-        <v>0.001797537785023451</v>
+        <v>0.002059603808447719</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5758728981018066</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.940673291683197</v>
       </c>
       <c r="W148" t="n">
-        <v>0.0124319763854146</v>
+        <v>0.133079320192337</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5185301303863525</v>
       </c>
       <c r="V149" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.4862778186798096</v>
       </c>
       <c r="W149" t="n">
-        <v>0.004129658453166485</v>
+        <v>0.001040211645886302</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5424740314483643</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.8866462707519531</v>
       </c>
       <c r="W150" t="n">
-        <v>0.01138955913484097</v>
+        <v>0.1184545308351517</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5694489479064941</v>
       </c>
       <c r="V151" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.5042881369590759</v>
       </c>
       <c r="W151" t="n">
-        <v>0.005524785257875919</v>
+        <v>0.004245931282639503</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5679459571838379</v>
       </c>
       <c r="V152" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.9141865372657776</v>
       </c>
       <c r="W152" t="n">
-        <v>0.00282483990304172</v>
+        <v>0.1198825389146805</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.6160671710968018</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.5180373787879944</v>
       </c>
       <c r="W153" t="n">
-        <v>0.00518316263332963</v>
+        <v>0.009609839878976345</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5219650268554688</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.4806370139122009</v>
       </c>
       <c r="W154" t="n">
-        <v>0.004644034430384636</v>
+        <v>0.001708004623651505</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5227479934692383</v>
       </c>
       <c r="V155" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.5169457197189331</v>
       </c>
       <c r="W155" t="n">
-        <v>0.01797963492572308</v>
+        <v>3.366637974977493e-05</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5243408679962158</v>
       </c>
       <c r="V156" t="n">
-        <v>0.505409836769104</v>
+        <v>0.4978952407836914</v>
       </c>
       <c r="W156" t="n">
-        <v>0.0003583839570637792</v>
+        <v>0.0006993712158873677</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5212581157684326</v>
       </c>
       <c r="V157" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.8636506199836731</v>
       </c>
       <c r="W157" t="n">
-        <v>0.0146026685833931</v>
+        <v>0.1172326281666756</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5190019607543945</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.4839571714401245</v>
       </c>
       <c r="W158" t="n">
-        <v>0.002031704410910606</v>
+        <v>0.001228137291036546</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5227711200714111</v>
       </c>
       <c r="V159" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.4689395427703857</v>
       </c>
       <c r="W159" t="n">
-        <v>0.04653586447238922</v>
+        <v>0.002897838829085231</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5196609497070312</v>
       </c>
       <c r="V160" t="n">
-        <v>0.473930835723877</v>
+        <v>0.8812251687049866</v>
       </c>
       <c r="W160" t="n">
-        <v>0.002091243397444487</v>
+        <v>0.13072869181633</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5215420722961426</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.4800429344177246</v>
       </c>
       <c r="W161" t="n">
-        <v>0.002615090226754546</v>
+        <v>0.001722178421914577</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3953540325164795</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.4987239241600037</v>
       </c>
       <c r="W162" t="n">
-        <v>0.005044125020503998</v>
+        <v>0.0106853349134326</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3877170085906982</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.4945278763771057</v>
       </c>
       <c r="W163" t="n">
-        <v>0.05609403550624847</v>
+        <v>0.01140856184065342</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.4533250331878662</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.4856312870979309</v>
       </c>
       <c r="W164" t="n">
-        <v>0.0002896292426157743</v>
+        <v>0.001043694093823433</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3950901031494141</v>
       </c>
       <c r="V165" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.9653579592704773</v>
       </c>
       <c r="W165" t="n">
-        <v>0.1789983808994293</v>
+        <v>0.3252054154872894</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3940849304199219</v>
       </c>
       <c r="V166" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.929557740688324</v>
       </c>
       <c r="W166" t="n">
-        <v>0.1096167787909508</v>
+        <v>0.2867311239242554</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3941659927368164</v>
       </c>
       <c r="V167" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.8851948976516724</v>
       </c>
       <c r="W167" t="n">
-        <v>0.0002298181934747845</v>
+        <v>0.2411093860864639</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3902099132537842</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.4925397634506226</v>
       </c>
       <c r="W168" t="n">
-        <v>0.004560060333460569</v>
+        <v>0.01047139801084995</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3931648731231689</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.8897761106491089</v>
       </c>
       <c r="W169" t="n">
-        <v>0.00183597335126251</v>
+        <v>0.2466227263212204</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.4191799163818359</v>
       </c>
       <c r="V170" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.8990512490272522</v>
       </c>
       <c r="W170" t="n">
-        <v>0.00681643933057785</v>
+        <v>0.230276495218277</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3926129341125488</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.8805879354476929</v>
       </c>
       <c r="W171" t="n">
-        <v>0.03108435496687889</v>
+        <v>0.2381196022033691</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3941249847412109</v>
       </c>
       <c r="V172" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.4856563806533813</v>
       </c>
       <c r="W172" t="n">
-        <v>0.05082841962575912</v>
+        <v>0.008377996273338795</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3931169509887695</v>
       </c>
       <c r="V173" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.5399858951568604</v>
       </c>
       <c r="W173" t="n">
-        <v>0.05517716705799103</v>
+        <v>0.0215704869478941</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4061641693115234</v>
       </c>
       <c r="V174" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.8801149725914001</v>
       </c>
       <c r="W174" t="n">
-        <v>0.00951128825545311</v>
+        <v>0.2246293574571609</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3932449817657471</v>
       </c>
       <c r="V175" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.8787431120872498</v>
       </c>
       <c r="W175" t="n">
-        <v>0.04474704712629318</v>
+        <v>0.2357084304094315</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3951010704040527</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.5054154396057129</v>
       </c>
       <c r="W176" t="n">
-        <v>0.01022217981517315</v>
+        <v>0.01216925960034132</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4156129360198975</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.8828357458114624</v>
       </c>
       <c r="W177" t="n">
-        <v>0.000707368366420269</v>
+        <v>0.218297153711319</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3956329822540283</v>
       </c>
       <c r="V178" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.4921956062316895</v>
       </c>
       <c r="W178" t="n">
-        <v>0.06317786127328873</v>
+        <v>0.009324340149760246</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3952579498291016</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.4850972294807434</v>
       </c>
       <c r="W179" t="n">
-        <v>0.005700476933270693</v>
+        <v>0.008071096614003181</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3933358192443848</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.9297325611114502</v>
       </c>
       <c r="W180" t="n">
-        <v>0.006534434389322996</v>
+        <v>0.2877214550971985</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4001789093017578</v>
       </c>
       <c r="V181" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.4969054460525513</v>
       </c>
       <c r="W181" t="n">
-        <v>0.003416355233639479</v>
+        <v>0.00935602281242609</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.9346530437469482</v>
       </c>
       <c r="V182" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.9475247263908386</v>
       </c>
       <c r="W182" t="n">
-        <v>0.01390089094638824</v>
+        <v>0.0001656802196521312</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8707888126373291</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.8733339905738831</v>
       </c>
       <c r="W183" t="n">
-        <v>0.04566414654254913</v>
+        <v>6.477930583059788e-06</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8717749118804932</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.4978189468383789</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1006528660655022</v>
+        <v>0.1398430615663528</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8786690235137939</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.5386772751808167</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1644079089164734</v>
+        <v>0.1155943870544434</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.9325599670410156</v>
       </c>
       <c r="V186" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.9137926697731018</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2465539276599884</v>
+        <v>0.0003522114420775324</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8882260322570801</v>
       </c>
       <c r="V187" t="n">
-        <v>0.57613205909729</v>
+        <v>0.4693800210952759</v>
       </c>
       <c r="W187" t="n">
-        <v>0.09740264713764191</v>
+        <v>0.1754319816827774</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8728690147399902</v>
       </c>
       <c r="V188" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.4954456090927124</v>
       </c>
       <c r="W188" t="n">
-        <v>0.06174928322434425</v>
+        <v>0.1424484252929688</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.871528148651123</v>
       </c>
       <c r="V189" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.9242470860481262</v>
       </c>
       <c r="W189" t="n">
-        <v>0.07122208923101425</v>
+        <v>0.002779286354780197</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.9353799819946289</v>
       </c>
       <c r="V190" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.5649019479751587</v>
       </c>
       <c r="W190" t="n">
-        <v>0.09863733500242233</v>
+        <v>0.1372539699077606</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>1.139770030975342</v>
       </c>
       <c r="V191" t="n">
-        <v>0.816550612449646</v>
+        <v>0.5022445321083069</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1044707894325256</v>
+        <v>0.4064387679100037</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8851068019866943</v>
       </c>
       <c r="V192" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.5018782019615173</v>
       </c>
       <c r="W192" t="n">
-        <v>0.06302454322576523</v>
+        <v>0.1468641608953476</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8734078407287598</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.9387013912200928</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1536826342344284</v>
+        <v>0.004263247828930616</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8867008686065674</v>
       </c>
       <c r="V194" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.5399290323257446</v>
       </c>
       <c r="W194" t="n">
-        <v>0.02338897623121738</v>
+        <v>0.1202507093548775</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.871157169342041</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.8819610476493835</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1570077389478683</v>
+        <v>0.0001167237860499881</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8626179695129395</v>
       </c>
       <c r="V196" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.8741417527198792</v>
       </c>
       <c r="W196" t="n">
-        <v>0.03591078147292137</v>
+        <v>0.0001327975769527256</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8710041046142578</v>
       </c>
       <c r="V197" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.5020471215248108</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1708812266588211</v>
+        <v>0.1361292600631714</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8685259819030762</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.9744836091995239</v>
       </c>
       <c r="W198" t="n">
-        <v>0.08545921742916107</v>
+        <v>0.01122701913118362</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8737170696258545</v>
       </c>
       <c r="V199" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.923933744430542</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1658833026885986</v>
+        <v>0.002521714428439736</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8619430065155029</v>
       </c>
       <c r="V200" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.8826140165328979</v>
       </c>
       <c r="W200" t="n">
-        <v>0.05588462576270103</v>
+        <v>0.0004272906517144293</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9144899845123291</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.4946275353431702</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1304306387901306</v>
+        <v>0.1762844771146774</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5230188369750977</v>
       </c>
       <c r="V202" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.4690704345703125</v>
       </c>
       <c r="W202" t="n">
-        <v>0.0209210142493248</v>
+        <v>0.002910430077463388</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5198538303375244</v>
       </c>
       <c r="V203" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.8853325843811035</v>
       </c>
       <c r="W203" t="n">
-        <v>0.01085542980581522</v>
+        <v>0.1335747241973877</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5238921642303467</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.9301347732543945</v>
       </c>
       <c r="W204" t="n">
-        <v>0.003571902867406607</v>
+        <v>0.1650330573320389</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5215418338775635</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.9714334607124329</v>
       </c>
       <c r="W205" t="n">
-        <v>0.02300696447491646</v>
+        <v>0.2024024724960327</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5227420330047607</v>
       </c>
       <c r="V206" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.4927511811256409</v>
       </c>
       <c r="W206" t="n">
-        <v>0.01798797957599163</v>
+        <v>0.0008994512027129531</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5245201587677002</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.4914340376853943</v>
       </c>
       <c r="W207" t="n">
-        <v>0.002658487297594547</v>
+        <v>0.001094691455364227</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5185220241546631</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.5412063598632812</v>
       </c>
       <c r="W208" t="n">
-        <v>0.006806763354688883</v>
+        <v>0.0005145790637470782</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5172538757324219</v>
       </c>
       <c r="V209" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.8746398687362671</v>
       </c>
       <c r="W209" t="n">
-        <v>0.05254466459155083</v>
+        <v>0.127724751830101</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5207748413085938</v>
       </c>
       <c r="V210" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.4981488585472107</v>
       </c>
       <c r="W210" t="n">
-        <v>0.08877194672822952</v>
+        <v>0.0005119350971654058</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5242879390716553</v>
       </c>
       <c r="V211" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.9306915998458862</v>
       </c>
       <c r="W211" t="n">
-        <v>0.0009185248054563999</v>
+        <v>0.1651639342308044</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5765249729156494</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.5144784450531006</v>
       </c>
       <c r="W212" t="n">
-        <v>6.029792712070048e-05</v>
+        <v>0.00384977157227695</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.525475025177002</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.5386725068092346</v>
       </c>
       <c r="W213" t="n">
-        <v>0.004488600883632898</v>
+        <v>0.0001741735177347437</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5259308815002441</v>
       </c>
       <c r="V214" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.4868306517601013</v>
       </c>
       <c r="W214" t="n">
-        <v>0.0005833412287756801</v>
+        <v>0.00152882793918252</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5243239402770996</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.5298864245414734</v>
       </c>
       <c r="W215" t="n">
-        <v>0.007868244312703609</v>
+        <v>3.094123167102225e-05</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5261631011962891</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.999001681804657</v>
       </c>
       <c r="W216" t="n">
-        <v>0.0005201321328058839</v>
+        <v>0.2235763221979141</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5653340816497803</v>
       </c>
       <c r="V217" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.8919618725776672</v>
       </c>
       <c r="W217" t="n">
-        <v>0.003818967845290899</v>
+        <v>0.1066857129335403</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5235130786895752</v>
       </c>
       <c r="V218" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.4841065406799316</v>
       </c>
       <c r="W218" t="n">
-        <v>0.02122369036078453</v>
+        <v>0.001552875270135701</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5250999927520752</v>
       </c>
       <c r="V219" t="n">
-        <v>0.458252340555191</v>
+        <v>0.4828894734382629</v>
       </c>
       <c r="W219" t="n">
-        <v>0.004468608647584915</v>
+        <v>0.001781727885827422</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5225710868835449</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.5409641861915588</v>
       </c>
       <c r="W220" t="n">
-        <v>0.007452163379639387</v>
+        <v>0.0003383060975465924</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5214908123016357</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.469023585319519</v>
       </c>
       <c r="W221" t="n">
-        <v>0.007352533284574747</v>
+        <v>0.002752810018137097</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3889279365539551</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.5395880937576294</v>
       </c>
       <c r="W222" t="n">
-        <v>0.0009880120633170009</v>
+        <v>0.02269848249852657</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.413477897644043</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.5301367044448853</v>
       </c>
       <c r="W223" t="n">
-        <v>0.0005084064905531704</v>
+        <v>0.0136092770844698</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3978509902954102</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.4689654111862183</v>
       </c>
       <c r="W224" t="n">
-        <v>0.006135058123618364</v>
+        <v>0.005057260859757662</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3941080570220947</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.9573094844818115</v>
       </c>
       <c r="W225" t="n">
-        <v>0.001762337749823928</v>
+        <v>0.317195862531662</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.396481990814209</v>
       </c>
       <c r="V226" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.513995885848999</v>
       </c>
       <c r="W226" t="n">
-        <v>0.05175585299730301</v>
+        <v>0.01380951516330242</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3980131149291992</v>
       </c>
       <c r="V227" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.8819039463996887</v>
       </c>
       <c r="W227" t="n">
-        <v>0.05130118504166603</v>
+        <v>0.2341503351926804</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3982460498809814</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.4685824513435364</v>
       </c>
       <c r="W228" t="n">
-        <v>0.00142745126504451</v>
+        <v>0.004947209265083075</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.449660062789917</v>
       </c>
       <c r="V229" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.4956326484680176</v>
       </c>
       <c r="W229" t="n">
-        <v>0.02860571257770061</v>
+        <v>0.002113478723913431</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3959939479827881</v>
       </c>
       <c r="V230" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.4950634837150574</v>
       </c>
       <c r="W230" t="n">
-        <v>0.1159971654415131</v>
+        <v>0.009814772754907608</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3977630138397217</v>
       </c>
       <c r="V231" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.4981324076652527</v>
       </c>
       <c r="W231" t="n">
-        <v>0.06701905280351639</v>
+        <v>0.010074014775455</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3968420028686523</v>
       </c>
       <c r="V232" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.8993188738822937</v>
       </c>
       <c r="W232" t="n">
-        <v>0.002691404661163688</v>
+        <v>0.2524830102920532</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3970139026641846</v>
       </c>
       <c r="V233" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.539958655834198</v>
       </c>
       <c r="W233" t="n">
-        <v>0.001521709375083447</v>
+        <v>0.0204332023859024</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3987858295440674</v>
       </c>
       <c r="V234" t="n">
-        <v>0.471180647611618</v>
+        <v>0.8819466829299927</v>
       </c>
       <c r="W234" t="n">
-        <v>0.005241009872406721</v>
+        <v>0.233444407582283</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4533138275146484</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.4806782603263855</v>
       </c>
       <c r="W235" t="n">
-        <v>0.008999938145279884</v>
+        <v>0.0007488121627829969</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.399367094039917</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.5397077202796936</v>
       </c>
       <c r="W236" t="n">
-        <v>0.05125750601291656</v>
+        <v>0.01969549059867859</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3943650722503662</v>
       </c>
       <c r="V237" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.5026481747627258</v>
       </c>
       <c r="W237" t="n">
-        <v>0.02583658695220947</v>
+        <v>0.01172523014247417</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.391916036605835</v>
       </c>
       <c r="V238" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.4986194372177124</v>
       </c>
       <c r="W238" t="n">
-        <v>0.06334348767995834</v>
+        <v>0.01138561591506004</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3918170928955078</v>
       </c>
       <c r="V239" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.5062351226806641</v>
       </c>
       <c r="W239" t="n">
-        <v>0.03113696351647377</v>
+        <v>0.01309148594737053</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3881440162658691</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.5485547780990601</v>
       </c>
       <c r="W240" t="n">
-        <v>0.004846265539526939</v>
+        <v>0.02573161199688911</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4428050518035889</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.4805234670639038</v>
       </c>
       <c r="W241" t="n">
-        <v>0.03342989459633827</v>
+        <v>0.001422678818926215</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8850870132446289</v>
       </c>
       <c r="V242" t="n">
-        <v>0.476378470659256</v>
+        <v>0.4806021451950073</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1670426726341248</v>
+        <v>0.1636080145835876</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8798251152038574</v>
       </c>
       <c r="V243" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.4690170884132385</v>
       </c>
       <c r="W243" t="n">
-        <v>0.0645037442445755</v>
+        <v>0.1687632352113724</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8727951049804688</v>
       </c>
       <c r="V244" t="n">
-        <v>0.480756551027298</v>
+        <v>0.9329658150672913</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1536942273378372</v>
+        <v>0.00362051441334188</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.9352459907531738</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.4686594605445862</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1885508000850677</v>
+        <v>0.2177029848098755</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8779680728912354</v>
       </c>
       <c r="V246" t="n">
-        <v>0.56818687915802</v>
+        <v>0.9977036714553833</v>
       </c>
       <c r="W246" t="n">
-        <v>0.09596438705921173</v>
+        <v>0.01433661393821239</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8827321529388428</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.9282278418540955</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1570367515087128</v>
+        <v>0.002069857669994235</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8742949962615967</v>
       </c>
       <c r="V248" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.482405424118042</v>
       </c>
       <c r="W248" t="n">
-        <v>0.09134902805089951</v>
+        <v>0.1535774320363998</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.9502129554748535</v>
       </c>
       <c r="V249" t="n">
-        <v>0.624763011932373</v>
+        <v>0.480866014957428</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1059176623821259</v>
+        <v>0.2202865481376648</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8725888729095459</v>
       </c>
       <c r="V250" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.4722606539726257</v>
       </c>
       <c r="W250" t="n">
-        <v>0.09069790691137314</v>
+        <v>0.1602626889944077</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8868601322174072</v>
       </c>
       <c r="V251" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.9301100373268127</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1120906472206116</v>
+        <v>0.001870554289780557</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8719358444213867</v>
       </c>
       <c r="V252" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.5678736567497253</v>
       </c>
       <c r="W252" t="n">
-        <v>0.06420852243900299</v>
+        <v>0.09245381504297256</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.9654839038848877</v>
       </c>
       <c r="V253" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.5665212273597717</v>
       </c>
       <c r="W253" t="n">
-        <v>0.04476969316601753</v>
+        <v>0.1591712236404419</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>1.206784963607788</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.9242648482322693</v>
       </c>
       <c r="W254" t="n">
-        <v>0.4901758134365082</v>
+        <v>0.07981761544942856</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8815159797668457</v>
       </c>
       <c r="V255" t="n">
-        <v>0.624285101890564</v>
+        <v>0.5016010999679565</v>
       </c>
       <c r="W255" t="n">
-        <v>0.06616772711277008</v>
+        <v>0.1443353146314621</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9038701057434082</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.5042902827262878</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1118756234645844</v>
+        <v>0.1596640348434448</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8837211132049561</v>
       </c>
       <c r="V257" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.9290767908096313</v>
       </c>
       <c r="W257" t="n">
-        <v>0.06678156554698944</v>
+        <v>0.002057137433439493</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8982620239257812</v>
       </c>
       <c r="V258" t="n">
-        <v>0.390147477388382</v>
+        <v>0.5394247174263</v>
       </c>
       <c r="W258" t="n">
-        <v>0.2581804096698761</v>
+        <v>0.1287642121315002</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8745191097259521</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.5346694588661194</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1041488498449326</v>
+        <v>0.1154977828264236</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8700950145721436</v>
       </c>
       <c r="V260" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.5060910582542419</v>
       </c>
       <c r="W260" t="n">
-        <v>0.0447859913110733</v>
+        <v>0.1324988752603531</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8766560554504395</v>
       </c>
       <c r="V261" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.9052139520645142</v>
       </c>
       <c r="W261" t="n">
-        <v>0.0674862340092659</v>
+        <v>0.000815553474240005</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5326499938964844</v>
       </c>
       <c r="V262" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.8844847083091736</v>
       </c>
       <c r="W262" t="n">
-        <v>0.0008240147144533694</v>
+        <v>0.1237876638770103</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5400080680847168</v>
       </c>
       <c r="V263" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.4832600951194763</v>
       </c>
       <c r="W263" t="n">
-        <v>0.03874356299638748</v>
+        <v>0.003220332320779562</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5232799053192139</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.9213430881500244</v>
       </c>
       <c r="W264" t="n">
-        <v>0.0006067166686989367</v>
+        <v>0.1584542989730835</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5238220691680908</v>
       </c>
       <c r="V265" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.4702510833740234</v>
       </c>
       <c r="W265" t="n">
-        <v>0.001927504199557006</v>
+        <v>0.002869850490242243</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5251779556274414</v>
       </c>
       <c r="V266" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.5036845803260803</v>
       </c>
       <c r="W266" t="n">
-        <v>0.01014577690511942</v>
+        <v>0.0004619651881512254</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5320019721984863</v>
       </c>
       <c r="V267" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.4841052889823914</v>
       </c>
       <c r="W267" t="n">
-        <v>0.08107440918684006</v>
+        <v>0.002294092206284404</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5274009704589844</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.4942921996116638</v>
       </c>
       <c r="W268" t="n">
-        <v>0.003762965323403478</v>
+        <v>0.001096190651878715</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5261731147766113</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.5292838215827942</v>
       </c>
       <c r="W269" t="n">
-        <v>0.00504702515900135</v>
+        <v>9.67649702943163e-06</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.523406982421875</v>
       </c>
       <c r="V270" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.5301478505134583</v>
       </c>
       <c r="W270" t="n">
-        <v>0.02098845131695271</v>
+        <v>4.543930117506534e-05</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.524493932723999</v>
       </c>
       <c r="V271" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.5655284523963928</v>
       </c>
       <c r="W271" t="n">
-        <v>0.002355549717321992</v>
+        <v>0.001683831796981394</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5320031642913818</v>
       </c>
       <c r="V272" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.9116600155830383</v>
       </c>
       <c r="W272" t="n">
-        <v>0.007575122639536858</v>
+        <v>0.1441393196582794</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5262110233306885</v>
       </c>
       <c r="V273" t="n">
-        <v>0.561543881893158</v>
+        <v>0.4989081025123596</v>
       </c>
       <c r="W273" t="n">
-        <v>0.001248410902917385</v>
+        <v>0.0007454495062120259</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5276648998260498</v>
       </c>
       <c r="V274" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.4690117239952087</v>
       </c>
       <c r="W274" t="n">
-        <v>0.009345164522528648</v>
+        <v>0.003440194996073842</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5256328582763672</v>
       </c>
       <c r="V275" t="n">
-        <v>0.43533855676651</v>
+        <v>0.9348841309547424</v>
       </c>
       <c r="W275" t="n">
-        <v>0.00815306045114994</v>
+        <v>0.1674866080284119</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5699729919433594</v>
       </c>
       <c r="V276" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.5682612657546997</v>
       </c>
       <c r="W276" t="n">
-        <v>0.002603006549179554</v>
+        <v>2.930006530732499e-06</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5278642177581787</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.4678891897201538</v>
       </c>
       <c r="W277" t="n">
-        <v>0.004841408226639032</v>
+        <v>0.003597003873437643</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5412349700927734</v>
       </c>
       <c r="V278" t="n">
-        <v>0.8121641874313354</v>
+        <v>1.004947185516357</v>
       </c>
       <c r="W278" t="n">
-        <v>0.07340264320373535</v>
+        <v>0.2150290161371231</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5354330539703369</v>
       </c>
       <c r="V279" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.5671441555023193</v>
       </c>
       <c r="W279" t="n">
-        <v>0.03588720038533211</v>
+        <v>0.001005593920126557</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5327210426330566</v>
       </c>
       <c r="V280" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.5629905462265015</v>
       </c>
       <c r="W280" t="n">
-        <v>0.008350979536771774</v>
+        <v>0.0009162428323179483</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5902218818664551</v>
       </c>
       <c r="V281" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.9757634401321411</v>
       </c>
       <c r="W281" t="n">
-        <v>0.004602440632879734</v>
+        <v>0.148642286658287</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4234740734100342</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.4922511577606201</v>
       </c>
       <c r="W282" t="n">
-        <v>0.03825638815760612</v>
+        <v>0.004730287473648787</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4039638042449951</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.936479389667511</v>
       </c>
       <c r="W283" t="n">
-        <v>0.02420257218182087</v>
+        <v>0.2835728526115417</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4023079872131348</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.5681693553924561</v>
       </c>
       <c r="W284" t="n">
-        <v>0.00281682750210166</v>
+        <v>0.02750999294221401</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4022848606109619</v>
       </c>
       <c r="V285" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.9268136620521545</v>
       </c>
       <c r="W285" t="n">
-        <v>0.000148467137478292</v>
+        <v>0.2751304507255554</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4012451171875</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.9173247218132019</v>
       </c>
       <c r="W286" t="n">
-        <v>0.01013972610235214</v>
+        <v>0.2663381695747375</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4587430953979492</v>
       </c>
       <c r="V287" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.5405908823013306</v>
       </c>
       <c r="W287" t="n">
-        <v>0.0005163044552318752</v>
+        <v>0.006699060089886189</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4033792018890381</v>
       </c>
       <c r="V288" t="n">
-        <v>0.812067985534668</v>
+        <v>0.4864566922187805</v>
       </c>
       <c r="W288" t="n">
-        <v>0.1670265197753906</v>
+        <v>0.006901869550347328</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4052109718322754</v>
       </c>
       <c r="V289" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.9164618849754333</v>
       </c>
       <c r="W289" t="n">
-        <v>0.1746590137481689</v>
+        <v>0.2613774836063385</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3977100849151611</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.4844287037849426</v>
       </c>
       <c r="W290" t="n">
-        <v>0.01189115643501282</v>
+        <v>0.007520118728280067</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4016931056976318</v>
       </c>
       <c r="V291" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.5345609188079834</v>
       </c>
       <c r="W291" t="n">
-        <v>0.004757538437843323</v>
+        <v>0.01765385642647743</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4048399925231934</v>
       </c>
       <c r="V292" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.9184615612030029</v>
       </c>
       <c r="W292" t="n">
-        <v>0.0005069023463875055</v>
+        <v>0.2638071179389954</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.453355073928833</v>
       </c>
       <c r="V293" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.4981728792190552</v>
       </c>
       <c r="W293" t="n">
-        <v>0.003933746367692947</v>
+        <v>0.002008635783568025</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3977370262145996</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.9673735499382019</v>
       </c>
       <c r="W294" t="n">
-        <v>0.005424261558800936</v>
+        <v>0.3244857788085938</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3999819755554199</v>
       </c>
       <c r="V295" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.5064036846160889</v>
       </c>
       <c r="W295" t="n">
-        <v>0.0489831380546093</v>
+        <v>0.01132558006793261</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.404771089553833</v>
       </c>
       <c r="V296" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.4979174137115479</v>
       </c>
       <c r="W296" t="n">
-        <v>0.04795138537883759</v>
+        <v>0.008676237426698208</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4034111499786377</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.984592616558075</v>
       </c>
       <c r="W297" t="n">
-        <v>0.00307188299484551</v>
+        <v>0.3377718925476074</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4014849662780762</v>
       </c>
       <c r="V298" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.5012942552566528</v>
       </c>
       <c r="W298" t="n">
-        <v>0.06531044840812683</v>
+        <v>0.009961893782019615</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4307370185852051</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.4979077577590942</v>
       </c>
       <c r="W299" t="n">
-        <v>0.0005239726160652936</v>
+        <v>0.004511908162385225</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.402601957321167</v>
       </c>
       <c r="V300" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.9030168652534485</v>
       </c>
       <c r="W300" t="n">
-        <v>0.0265094731003046</v>
+        <v>0.2504150867462158</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4048280715942383</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.8900138139724731</v>
       </c>
       <c r="W301" t="n">
-        <v>0.002447650302201509</v>
+        <v>0.2354052066802979</v>
       </c>
     </row>
     <row r="302" spans="1:23">
